--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="19140" windowHeight="9264"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,7 +153,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -460,7 +460,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -535,9 +535,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -692,10 +692,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">

--- a/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
+++ b/InputData/land/FoFObE/Fraction of Forests Owned by Entity.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\FoFObE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="90" windowWidth="19140" windowHeight="9270"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="FoFObE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>FoFObE Fraction of Forests Owned by Entity</t>
   </si>
@@ -63,18 +68,9 @@
     <t>Page 6</t>
   </si>
   <si>
-    <t>Fraction of Forest Owned</t>
-  </si>
-  <si>
     <t>government</t>
   </si>
   <si>
-    <t>industry</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -88,12 +84,63 @@
   </si>
   <si>
     <t>by industry.  The remainder is owned by consumers.</t>
+  </si>
+  <si>
+    <t>foreign entities</t>
+  </si>
+  <si>
+    <t>nonenergy industries</t>
+  </si>
+  <si>
+    <t>labor and consumers</t>
+  </si>
+  <si>
+    <t>electricity suppliers</t>
+  </si>
+  <si>
+    <t>coal suppliers</t>
+  </si>
+  <si>
+    <t>natural gas and petroleum suppliers</t>
+  </si>
+  <si>
+    <t>biomass and biofuel suppliers</t>
+  </si>
+  <si>
+    <t>other energy suppliers</t>
+  </si>
+  <si>
+    <t>Though some industry-owned timber land might be used to</t>
+  </si>
+  <si>
+    <t>produce biomass, but not all biomass is wood, and</t>
+  </si>
+  <si>
+    <t>much of the wood biomass is waste (bark, sawdust, chips, scrap,</t>
+  </si>
+  <si>
+    <t>and paper mill residues), which is not the main product</t>
+  </si>
+  <si>
+    <t>of the timber lands.  Accordingly, we assign timber land</t>
+  </si>
+  <si>
+    <t>ownership to "nonenergy industries" rather than assigning</t>
+  </si>
+  <si>
+    <t>a share to "biomass and biofuel suppliers."</t>
+  </si>
+  <si>
+    <t>Biomass</t>
+  </si>
+  <si>
+    <t>Fraction of Forest Owned (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -143,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,6 +201,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -164,6 +217,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -212,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,7 +303,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,18 +512,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -475,49 +531,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>23</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -535,22 +631,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,7 +654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -566,7 +662,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -574,7 +670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -582,7 +678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -590,7 +686,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -598,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -606,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -614,7 +710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -622,7 +718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
@@ -630,7 +726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -638,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -646,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -654,7 +750,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
@@ -662,7 +758,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -670,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -680,6 +776,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -688,46 +785,96 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="2" max="2" width="23.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="5">
         <f>SUM(Data!B3,Data!B7)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
         <v>0.42384105960264901</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <f>SUM(Data!B11,Data!B16,Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
         <v>0.52814569536423839</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <f>(Data!B18/2)/SUM(Data!B3,Data!B7,Data!B11,Data!B15)</f>
         <v>4.8013245033112585E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
